--- a/The square root of all evil; The role of market power in fiscal consolidations/dsge.xlsx
+++ b/The square root of all evil; The role of market power in fiscal consolidations/dsge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Documents\Papers\Acadêmicos\Research\The square root of all evil; The role of market power in fiscal consolidations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8230F585-9055-4147-B4F1-13BEBBD50DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6160F27D-A3B2-4B2F-8DD8-25EB56511A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82705799-8DA6-4008-9F5F-BFAD6248BA30}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82705799-8DA6-4008-9F5F-BFAD6248BA30}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Y_obs</t>
+    <t>YY</t>
   </si>
   <si>
-    <t>T_obs</t>
+    <t>MUMU</t>
   </si>
   <si>
-    <t>mu_obs</t>
+    <t>WW</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C101"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -405,10 +405,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
